--- a/Similarity/000016.SH_Probability.xlsx
+++ b/Similarity/000016.SH_Probability.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>5天</t>
+    <t>一周</t>
   </si>
   <si>
     <t>概率</t>
   </si>
   <si>
-    <t>20天</t>
+    <t>一月</t>
   </si>
   <si>
     <t>盘整</t>
@@ -710,11 +710,11 @@
     <row customHeight="1" ht="35" r="2" spans="1:4">
       <c r="A2" s="5" t="s"/>
       <c r="B2" s="6" t="n">
-        <v>0.9154929577464789</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C2" s="7" t="s"/>
       <c r="D2" s="8" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="3" spans="1:4">
@@ -722,23 +722,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="4" spans="1:4">
       <c r="A4" s="11" t="s"/>
       <c r="B4" s="12" t="n">
-        <v>0.08450704225352113</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C4" s="13" t="s"/>
       <c r="D4" s="14" t="n">
-        <v>0.2112676056338029</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
   </sheetData>
